--- a/downloaded_files/GENS208_Lecture-35043.xlsx
+++ b/downloaded_files/GENS208_Lecture-35043.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -96,15 +96,6 @@
     <x:t>basem ashraf mohamed mohamed elgalfy</x:t>
   </x:si>
   <x:si>
-    <x:t>4220108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بسملة خالد عبدالفتاح محمد جلال</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Basmalla Khaled Abdel Fattah Mohamed Galal</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230318</x:t>
   </x:si>
   <x:si>
@@ -201,6 +192,15 @@
     <x:t>Omar ahmed mohamed refaat el sayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزي احمد حسين عبدالعزيز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kenzie Ahmed Hussein</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210412</x:t>
   </x:si>
   <x:si>
@@ -253,15 +253,6 @@
   </x:si>
   <x:si>
     <x:t>MOHAMED</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان سامح محمد عبدالفتاح عبدالوهاب الخولى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Sameh Mohamed Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1230255</x:t>
@@ -467,7 +458,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -767,7 +758,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -775,8 +766,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.040625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="41.620625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="33.510625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="41.310625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1082,7 +1073,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.8100242708</x:v>
+        <x:v>45909.4151592593</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1114,7 +1105,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4151592593</x:v>
+        <x:v>45907.4145391204</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1146,7 +1137,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4145391204</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1178,7 +1169,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45907.4146253472</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1210,7 +1201,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4146253472</x:v>
+        <x:v>45907.4154818634</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1242,7 +1233,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4154818634</x:v>
+        <x:v>45906.4145669329</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1270,11 +1261,9 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45906.4145669329</x:v>
+        <x:v>45907.4153023958</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1297,14 +1286,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.4153023958</x:v>
+        <x:v>45909.4161108449</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1336,7 +1327,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4161108449</x:v>
+        <x:v>45906.6647735764</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1368,7 +1359,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647735764</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1400,7 +1391,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45906.810418669</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1432,7 +1423,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.810418669</x:v>
+        <x:v>45922.3106806366</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1656,7 +1647,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45914.942491088</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1688,7 +1679,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.942491088</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1720,7 +1711,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45909.6857416319</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1752,7 +1743,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.6857416319</x:v>
+        <x:v>45914.9421922801</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1784,7 +1775,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.9421922801</x:v>
+        <x:v>45909.4149600694</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1816,7 +1807,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4149600694</x:v>
+        <x:v>45906.4235761574</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1848,7 +1839,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4235761574</x:v>
+        <x:v>45907.4143625</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1880,7 +1871,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4143625</x:v>
+        <x:v>45914.9415191319</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1912,7 +1903,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.9415191319</x:v>
+        <x:v>45907.414718669</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1944,7 +1935,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.414718669</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1961,38 +1952,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.414405706</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35043.xlsx
+++ b/downloaded_files/GENS208_Lecture-35043.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -154,6 +154,12 @@
   </x:si>
   <x:si>
     <x:t>زياد احمد حسن عبده الخياط</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زينة شادي عبداللطيف الشاذلي</x:t>
   </x:si>
   <x:si>
     <x:t>1230042</x:t>
@@ -458,7 +464,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +764,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1291,11 +1297,9 @@
       <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45909.4161108449</x:v>
+        <x:v>45922.8873910069</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1318,16 +1322,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647735764</x:v>
+        <x:v>45909.4161108449</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1350,16 +1354,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45906.6647735764</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1382,16 +1386,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.810418669</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1414,16 +1418,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45922.3106806366</x:v>
+        <x:v>45906.810418669</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1446,16 +1450,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45922.3106806366</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1478,16 +1482,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.665478125</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1510,16 +1514,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4198560532</x:v>
+        <x:v>45906.665478125</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,16 +1546,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.9440412037</x:v>
+        <x:v>45907.4198560532</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1574,16 +1578,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6685710995</x:v>
+        <x:v>45914.9440412037</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1606,16 +1610,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.9448231134</x:v>
+        <x:v>45906.6685710995</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,16 +1642,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.942491088</x:v>
+        <x:v>45914.9448231134</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1670,16 +1674,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45914.942491088</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1702,16 +1706,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.6857416319</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1734,16 +1738,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.9421922801</x:v>
+        <x:v>45909.6857416319</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,16 +1770,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4149600694</x:v>
+        <x:v>45914.9421922801</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,16 +1802,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4235761574</x:v>
+        <x:v>45909.4149600694</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,16 +1834,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4143625</x:v>
+        <x:v>45906.4235761574</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,16 +1866,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.9415191319</x:v>
+        <x:v>45907.4143625</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1894,16 +1898,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.414718669</x:v>
+        <x:v>45914.9415191319</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1926,16 +1930,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.414718669</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1952,6 +1956,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35043.xlsx
+++ b/downloaded_files/GENS208_Lecture-35043.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,13 +51,22 @@
     <x:t>Ahmed ismail shoukry Ahmed ismail</x:t>
   </x:si>
   <x:si>
-    <x:t>1200091</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد عاطف محمد لطفى على مغربى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Aef Mohamed Lotfy Aly Maghraby</x:t>
+    <x:t>1230150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد حسني خيري برغش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed hosni khairy barghash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد فاروق محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
   </x:si>
   <x:si>
     <x:t>1230015</x:t>
@@ -69,15 +78,6 @@
     <x:t>Adham Moatasem Bellah Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اسامه سعيد النجار توفيق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>osama said elnaggar</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230144</x:t>
   </x:si>
   <x:si>
@@ -87,6 +87,15 @@
     <x:t>Ans Sayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>انطون مجدي يعقوب نظير</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANTON</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210206</x:t>
   </x:si>
   <x:si>
@@ -123,15 +132,6 @@
     <x:t>jana mohamed salama abdelaty essayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حبيبه سيد بدير احمد امين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Sayed Bedier Ahmed Amin</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230179</x:t>
   </x:si>
   <x:si>
@@ -189,13 +189,22 @@
     <x:t>Abdelrahman Mohamed Kamal Abdelaziz</x:t>
   </x:si>
   <x:si>
-    <x:t>1210106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد محمد رفعت السيد حريشه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar ahmed mohamed refaat el sayed</x:t>
+    <x:t>1230207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد سعيد عبدالعزيز محمد ثابت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mohamed Said Abdelaziz Mohamed Sabet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد الطاهر علي ابوشحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid El Taher Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1230083</x:t>
@@ -464,7 +473,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -764,7 +773,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -773,7 +782,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.510625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="41.310625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.970625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -919,7 +928,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.9413810185</x:v>
+        <x:v>45927.428427581</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -951,7 +960,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4203890046</x:v>
+        <x:v>45927.4142976505</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -983,7 +992,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4144651968</x:v>
+        <x:v>45907.4203890046</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1047,7 +1056,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4146423958</x:v>
+        <x:v>45927.4531734144</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1079,7 +1088,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4151592593</x:v>
+        <x:v>45906.4146423958</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1111,7 +1120,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4145391204</x:v>
+        <x:v>45909.4151592593</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1143,7 +1152,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45907.4145391204</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1175,7 +1184,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4146253472</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1427,7 +1436,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.810418669</x:v>
+        <x:v>45927.4254229514</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1459,7 +1468,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45922.3106806366</x:v>
+        <x:v>45927.4310327546</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1491,7 +1500,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45927.4326323264</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1523,7 +1532,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.665478125</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1555,7 +1564,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4198560532</x:v>
+        <x:v>45906.665478125</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1587,7 +1596,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.9440412037</x:v>
+        <x:v>45907.4198560532</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1619,7 +1628,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6685710995</x:v>
+        <x:v>45914.9440412037</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1651,7 +1660,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.9448231134</x:v>
+        <x:v>45906.6685710995</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1683,7 +1692,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.942491088</x:v>
+        <x:v>45914.9448231134</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1715,7 +1724,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45914.942491088</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1747,7 +1756,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.6857416319</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1779,7 +1788,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.9421922801</x:v>
+        <x:v>45909.6857416319</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1811,7 +1820,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4149600694</x:v>
+        <x:v>45914.9421922801</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1843,7 +1852,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4235761574</x:v>
+        <x:v>45909.4149600694</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1875,7 +1884,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4143625</x:v>
+        <x:v>45906.4235761574</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1907,7 +1916,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.9415191319</x:v>
+        <x:v>45907.4143625</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1939,7 +1948,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.414718669</x:v>
+        <x:v>45914.9415191319</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1971,7 +1980,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.414718669</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1988,6 +1997,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.414405706</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35043.xlsx
+++ b/downloaded_files/GENS208_Lecture-35043.xlsx
@@ -1596,7 +1596,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4198560532</x:v>
+        <x:v>45927.9702742708</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/GENS208_Lecture-35043.xlsx
+++ b/downloaded_files/GENS208_Lecture-35043.xlsx
@@ -207,13 +207,13 @@
     <x:t>Omar Walid El Taher Ali</x:t>
   </x:si>
   <x:si>
-    <x:t>1230083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كنزي احمد حسين عبدالعزيز</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kenzie Ahmed Hussein</x:t>
+    <x:t>1230228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم وائل إسماعيل يوسف ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>karim wael ismaiel yousef Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210412</x:t>
@@ -297,6 +297,15 @@
     <x:t>MALAK</x:t>
   </x:si>
   <x:si>
+    <x:t>1210031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>منة الله مدحت عبد الرازق على عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menna Tullah Medhat Abdelrazik Aly</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230268</x:t>
   </x:si>
   <x:si>
@@ -304,15 +313,6 @@
   </x:si>
   <x:si>
     <x:t>MOHANAD EHAB MOHAMED SAID ABBAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين سامى حموده بكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1210359</x:t>
@@ -1500,7 +1500,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4326323264</x:v>
+        <x:v>45928.435952581</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1820,7 +1820,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.9421922801</x:v>
+        <x:v>45928.6077471065</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1852,7 +1852,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4149600694</x:v>
+        <x:v>45914.9421922801</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>

--- a/downloaded_files/GENS208_Lecture-35043.xlsx
+++ b/downloaded_files/GENS208_Lecture-35043.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>Ahmed ismail shoukry Ahmed ismail</x:t>
   </x:si>
   <x:si>
-    <x:t>1230150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد حسني خيري برغش</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed hosni khairy barghash</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220223</x:t>
   </x:si>
   <x:si>
@@ -87,15 +78,6 @@
     <x:t>Ans Sayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>انطون مجدي يعقوب نظير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANTON</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210206</x:t>
   </x:si>
   <x:si>
@@ -156,12 +138,6 @@
     <x:t>زياد احمد حسن عبده الخياط</x:t>
   </x:si>
   <x:si>
-    <x:t>1230297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زينة شادي عبداللطيف الشاذلي</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230042</x:t>
   </x:si>
   <x:si>
@@ -349,6 +325,12 @@
   </x:si>
   <x:si>
     <x:t>YOUSEF AMR MOHAMED KOTB MAHROUS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
   <x:si>
     <x:t>1230134</x:t>
@@ -473,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -773,7 +755,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -928,7 +910,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.428427581</x:v>
+        <x:v>45927.4142976505</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -960,7 +942,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4142976505</x:v>
+        <x:v>45907.4203890046</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -992,7 +974,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4203890046</x:v>
+        <x:v>45909.4153318634</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1024,7 +1006,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4153318634</x:v>
+        <x:v>45906.4146423958</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1056,7 +1038,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4531734144</x:v>
+        <x:v>45909.4151592593</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1088,7 +1070,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4146423958</x:v>
+        <x:v>45907.4145391204</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1120,7 +1102,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4151592593</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1152,7 +1134,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4145391204</x:v>
+        <x:v>45907.4154818634</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1184,7 +1166,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45906.4145669329</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1212,11 +1194,9 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.4154818634</x:v>
+        <x:v>45907.4153023958</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1239,16 +1219,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4145669329</x:v>
+        <x:v>45909.4161108449</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1271,14 +1251,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45907.4153023958</x:v>
+        <x:v>45906.6647735764</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1306,9 +1288,11 @@
       <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45922.8873910069</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1331,16 +1315,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4161108449</x:v>
+        <x:v>45927.4254229514</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1363,16 +1347,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647735764</x:v>
+        <x:v>45927.4310327546</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1395,16 +1379,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45928.435952581</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1427,16 +1411,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4254229514</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1459,16 +1443,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4310327546</x:v>
+        <x:v>45906.665478125</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1491,16 +1475,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45928.435952581</x:v>
+        <x:v>45927.9702742708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1523,16 +1507,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45914.9440412037</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1555,16 +1539,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.665478125</x:v>
+        <x:v>45906.6685710995</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1587,16 +1571,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.9702742708</x:v>
+        <x:v>45914.9448231134</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1619,16 +1603,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.9440412037</x:v>
+        <x:v>45914.942491088</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1651,16 +1635,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6685710995</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1683,16 +1667,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.9448231134</x:v>
+        <x:v>45909.6857416319</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1715,16 +1699,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.942491088</x:v>
+        <x:v>45928.6077471065</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1747,16 +1731,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45914.9421922801</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1779,16 +1763,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.6857416319</x:v>
+        <x:v>45906.4235761574</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1811,16 +1795,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45928.6077471065</x:v>
+        <x:v>45907.4143625</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1843,16 +1827,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.9421922801</x:v>
+        <x:v>45914.9415191319</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1875,16 +1859,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4235761574</x:v>
+        <x:v>45907.414718669</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1907,16 +1891,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
+      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45907.4143625</x:v>
+        <x:v>45928.9282471065</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1948,7 +1930,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.9415191319</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1965,70 +1947,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.414718669</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45907.414405706</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS208_Lecture-35043.xlsx
+++ b/downloaded_files/GENS208_Lecture-35043.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -165,15 +165,6 @@
     <x:t>Abdelrahman Mohamed Kamal Abdelaziz</x:t>
   </x:si>
   <x:si>
-    <x:t>1230207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمد سعيد عبدالعزيز محمد ثابت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Mohamed Said Abdelaziz Mohamed Sabet</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230077</x:t>
   </x:si>
   <x:si>
@@ -192,6 +183,15 @@
     <x:t>karim wael ismaiel yousef Ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>1230083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزي احمد حسين عبدالعزيز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kenzie Ahmed Hussein</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210412</x:t>
   </x:si>
   <x:si>
@@ -289,24 +289,6 @@
   </x:si>
   <x:si>
     <x:t>MOHANAD EHAB MOHAMED SAID ABBAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210359</x:t>
-  </x:si>
-  <x:si>
-    <x:t>همسه صابر عبدالرازق ابوخطوة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamsa Saber Abdulrazek Abokhatwa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يارا رامى عصام الدين عبد العزيز عبد الحق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yara Ramy Essam El Din Abd El Aziz Abd El Haa</x:t>
   </x:si>
   <x:si>
     <x:t>1230288</x:t>
@@ -455,7 +437,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -755,7 +737,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1324,7 +1306,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4254229514</x:v>
+        <x:v>45927.4310327546</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1356,7 +1338,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4310327546</x:v>
+        <x:v>45928.435952581</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1388,7 +1370,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45928.435952581</x:v>
+        <x:v>45929.4642387384</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1772,7 +1754,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4235761574</x:v>
+        <x:v>45914.9415191319</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1804,7 +1786,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4143625</x:v>
+        <x:v>45907.414718669</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1832,11 +1814,9 @@
       <x:c r="C33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
+      <x:c r="D33" s="2" t="s"/>
       <x:c r="E33" s="3">
-        <x:v>45914.9415191319</x:v>
+        <x:v>45928.9282471065</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1859,16 +1839,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.414718669</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1886,68 +1866,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s"/>
-      <x:c r="E35" s="3">
-        <x:v>45928.9282471065</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.414405706</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1960,9 +1878,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Marketing (GENS208) Location : [20105]20105-45-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS208_Lecture-35043.xlsx
+++ b/downloaded_files/GENS208_Lecture-35043.xlsx
@@ -117,7 +117,7 @@
     <x:t>1230179</x:t>
   </x:si>
   <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
+    <x:t>حمزة محمد سيد على على حسن</x:t>
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>

--- a/downloaded_files/GENS208_Lecture-35043.xlsx
+++ b/downloaded_files/GENS208_Lecture-35043.xlsx
@@ -57,7 +57,7 @@
     <x:t>احمد محمد فاروق محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Farouk Mohamed  </x:t>
   </x:si>
   <x:si>
     <x:t>1230015</x:t>
@@ -746,7 +746,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.510625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="46.970625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="39.220625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/GENS208_Lecture-35043.xlsx
+++ b/downloaded_files/GENS208_Lecture-35043.xlsx
@@ -93,7 +93,7 @@
     <x:t>بيشوي ماهر فؤاد بدرس بدروس</x:t>
   </x:si>
   <x:si>
-    <x:t>Beshoy Maher Fouad Badras</x:t>
+    <x:t>Beshoy Maher Fouad Badras Badros</x:t>
   </x:si>
   <x:si>
     <x:t>1230024</x:t>
@@ -198,7 +198,7 @@
     <x:t>لؤى احمد كمال عبدالغفار عثمان</x:t>
   </x:si>
   <x:si>
-    <x:t>Loay Ahmed Kamal Abdul Ghaffar Othman</x:t>
+    <x:t>Loay Ahmed Kamal Abdelghafar Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1220138</x:t>
@@ -234,7 +234,7 @@
     <x:t>محمد ممدوح سيد محمد السمرى</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+    <x:t>Mohamed Mamdouh Sayed Mohamed Elsemary</x:t>
   </x:si>
   <x:si>
     <x:t>1240362</x:t>
@@ -746,7 +746,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.510625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="39.220625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.030625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
